--- a/5 Ecological impacts/viewshed_summary.xlsx
+++ b/5 Ecological impacts/viewshed_summary.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.18 (0.10-0.29)</t>
+          <t>0.20 (0.07-0.39)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.24 (0.09-0.42)</t>
+          <t>0.19 (0.10-0.33)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -518,12 +518,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.15 (0.04-0.31)</t>
+          <t>0.23 (0.11-0.38)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.18 (0.05-0.33)</t>
+          <t>0.27 (0.07-0.80)</t>
         </is>
       </c>
     </row>
@@ -540,17 +540,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.62 (0.10-1.09)</t>
+          <t>0.90 (0.18-2.38)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.27 (0.10-3.39)</t>
+          <t>0.29 (0.08-0.61)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.69 (0.16-1.30)</t>
+          <t>0.79 (0.08-2.61)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -560,17 +560,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.37 (0.11-0.72)</t>
+          <t>0.76 (0.21-2.63)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.51 (0.13-1.00)</t>
+          <t>0.68 (0.08-1.33)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.66 (0.05-1.34)</t>
+          <t>0.64 (0.05-2.17)</t>
         </is>
       </c>
     </row>
@@ -587,17 +587,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.43 (2.68-7.39)</t>
+          <t>6.52 (3.47-8.58)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.54 (3.16-9.04)</t>
+          <t>6.16 (3.58-9.82)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.39 (3.11-9.28)</t>
+          <t>3.84 (1.96-6.26)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -607,17 +607,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5.12 (3.25-8.10)</t>
+          <t>6.48 (3.52-10.61)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>4.93 (2.58-8.20)</t>
+          <t>3.60 (1.71-5.91)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.58 (0.00-1.45)</t>
+          <t>0.63 (0.00-2.06)</t>
         </is>
       </c>
     </row>
@@ -634,17 +634,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.13 (3.42-4.73)</t>
+          <t>3.88 (3.46-4.49)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.10 (3.20-4.77)</t>
+          <t>4.31 (3.35-4.99)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.90 (3.48-4.61)</t>
+          <t>4.20 (3.34-5.52)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -654,17 +654,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4.17 (3.80-4.83)</t>
+          <t>4.01 (3.43-4.35)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>3.72 (3.22-4.31)</t>
+          <t>4.32 (3.43-5.49)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.83 (0.50-1.18)</t>
+          <t>0.80 (0.58-1.11)</t>
         </is>
       </c>
     </row>
@@ -681,17 +681,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9.37 (6.30-13.49)</t>
+          <t>11.51 (7.19-15.85)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.91 (6.45-17.19)</t>
+          <t>10.77 (7.01-15.42)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11.22 (6.83-15.60)</t>
+          <t>9.01 (5.49-14.71)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -701,17 +701,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>9.66 (7.15-13.64)</t>
+          <t>11.24 (7.17-17.59)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>9.31 (5.98-13.82)</t>
+          <t>8.83 (5.33-13.11)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2.25 (0.60-4.31)</t>
+          <t>2.34 (0.71-6.14)</t>
         </is>
       </c>
     </row>
